--- a/SerialDataLog Attempt Straight plus full swings.xlsx
+++ b/SerialDataLog Attempt Straight plus full swings.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'SerialDataLog Attempt Straight '!$I$6,'SerialDataLog Attempt Straight '!$I$7</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.00000001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
@@ -34,14 +34,14 @@
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'SerialDataLog Attempt Straight '!$I$9</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="31">
   <si>
     <t>Fri Jul 17 08:41:17 2015</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Fitted</t>
+  </si>
+  <si>
+    <t>alpha</t>
   </si>
 </sst>
 </file>
@@ -703,7 +706,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3466,11 +3468,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="316071504"/>
-        <c:axId val="316072288"/>
+        <c:axId val="354583376"/>
+        <c:axId val="354579456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="316071504"/>
+        <c:axId val="354583376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210000"/>
@@ -3529,12 +3531,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316072288"/>
+        <c:crossAx val="354579456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="316072288"/>
+        <c:axId val="354579456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3591,7 +3593,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316071504"/>
+        <c:crossAx val="354583376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5090,436 +5092,1348 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="144"/>
                 <c:pt idx="0">
-                  <c:v>429.18694280547203</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>428.18694280547203</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>428.23034286375548</c:v>
+                  <c:v>389.19997837889753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>428.27374235159414</c:v>
+                  <c:v>390.39991351766923</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>428.31714127654328</c:v>
+                  <c:v>391.59980541942986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>428.36053964605838</c:v>
+                  <c:v>392.79965408729595</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>428.40393746749606</c:v>
+                  <c:v>393.99945952438327</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>428.44733474811551</c:v>
+                  <c:v>395.19922173380837</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>428.49073149507979</c:v>
+                  <c:v>396.39894071868508</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>428.53412771545709</c:v>
+                  <c:v>397.59861648213007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>428.57752341622194</c:v>
+                  <c:v>398.79824902725807</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>428.62091860425647</c:v>
+                  <c:v>399.99783835718284</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>428.66431328635184</c:v>
+                  <c:v>401.19738447501925</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>428.70770746920903</c:v>
+                  <c:v>402.39688738388202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>428.75110115944045</c:v>
+                  <c:v>403.59634708688498</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>428.79449436357072</c:v>
+                  <c:v>404.79576358714195</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>428.83788708803831</c:v>
+                  <c:v>405.99513688776585</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>428.88127933919623</c:v>
+                  <c:v>407.19446699187142</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>428.92467112331337</c:v>
+                  <c:v>408.39375390257067</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>428.96806244657557</c:v>
+                  <c:v>409.5929976229765</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>429.0114533150869</c:v>
+                  <c:v>410.79219815620274</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>429.0548437348703</c:v>
+                  <c:v>411.99135550536141</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>429.09823371186923</c:v>
+                  <c:v>413.19046967356354</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>429.14162325194826</c:v>
+                  <c:v>414.38954066392296</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>429.18501236089435</c:v>
+                  <c:v>415.5885684795507</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>429.22840104441769</c:v>
+                  <c:v>416.78755312355793</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>429.27178930815302</c:v>
+                  <c:v>417.98649459905653</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>429.31517715766034</c:v>
+                  <c:v>419.18539290915669</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>429.35856459842609</c:v>
+                  <c:v>420.38424805697127</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>429.4019516358639</c:v>
+                  <c:v>421.58306004560859</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>429.44533827531581</c:v>
+                  <c:v>422.78182887818161</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>429.48872452205308</c:v>
+                  <c:v>423.98055455779854</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>429.53211038127716</c:v>
+                  <c:v>425.17923708757053</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>429.57549585812058</c:v>
+                  <c:v>426.37787647060577</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>429.61888095764795</c:v>
+                  <c:v>427.57647271001628</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>429.66226568485672</c:v>
+                  <c:v>428.77502580890939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>429.70868693623322</c:v>
+                  <c:v>430.05742985228386</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>429.75467393525139</c:v>
+                  <c:v>431.32780011706461</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>429.79805752867759</c:v>
+                  <c:v>432.52621820623511</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>429.84144076973331</c:v>
+                  <c:v>433.72459316772904</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>429.88482366308557</c:v>
+                  <c:v>434.92292500465277</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>429.92820621333971</c:v>
+                  <c:v>436.12121372011552</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>429.97158842503995</c:v>
+                  <c:v>437.31945931722476</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>430.01497030267041</c:v>
+                  <c:v>438.5176617990877</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>430.05835185065581</c:v>
+                  <c:v>439.71582116881183</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>430.1017330733622</c:v>
+                  <c:v>440.91393742950447</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>430.1451139750979</c:v>
+                  <c:v>442.11201058427201</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>430.18849456011407</c:v>
+                  <c:v>443.31004063622095</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>430.23187483260563</c:v>
+                  <c:v>444.50802758845867</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>430.27525479671192</c:v>
+                  <c:v>445.70597144409061</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>430.31863445651743</c:v>
+                  <c:v>446.9038722062233</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>430.36201381605258</c:v>
+                  <c:v>448.10172987796125</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>430.40539287929448</c:v>
+                  <c:v>449.29954446241095</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>430.44877165016737</c:v>
+                  <c:v>450.49731596267702</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>430.49215013254371</c:v>
+                  <c:v>451.69504438186578</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>430.53552833024452</c:v>
+                  <c:v>452.89272972308015</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>430.57890624704038</c:v>
+                  <c:v>454.09037198942639</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>430.6222838866517</c:v>
+                  <c:v>455.28797118400831</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>430.66566125274989</c:v>
+                  <c:v>456.48552730993038</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>430.70903834895745</c:v>
+                  <c:v>457.68304037029543</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>430.75241517884916</c:v>
+                  <c:v>458.880510368209</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>430.79579174595222</c:v>
+                  <c:v>460.07793730677281</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>430.83916805374736</c:v>
+                  <c:v>461.27532118909056</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>430.8825441056689</c:v>
+                  <c:v>462.47266201826596</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>430.92591990510596</c:v>
+                  <c:v>463.6699597974017</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>430.96929545540263</c:v>
+                  <c:v>464.86721452959966</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>431.01267075985874</c:v>
+                  <c:v>466.0644262179635</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>431.05604582173038</c:v>
+                  <c:v>467.26159486559311</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>431.09942064423058</c:v>
+                  <c:v>468.45872047559317</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>431.14279523052977</c:v>
+                  <c:v>469.65580305106357</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>431.1861695837564</c:v>
+                  <c:v>470.85284259510621</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>431.22954370699739</c:v>
+                  <c:v>472.04983911082195</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>431.27291760329899</c:v>
+                  <c:v>473.24679260131256</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>431.31932742442319</c:v>
+                  <c:v>474.52748519136611</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>431.36270086046574</c:v>
+                  <c:v>475.72434962949296</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>431.40607407867066</c:v>
+                  <c:v>476.92117105191278</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>431.44944708192315</c:v>
+                  <c:v>478.11794946172552</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>431.49281987307029</c:v>
+                  <c:v>479.3146848620321</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>431.53619245492138</c:v>
+                  <c:v>480.51137725593151</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>431.57956483024844</c:v>
+                  <c:v>481.70802664652376</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>431.62293700178691</c:v>
+                  <c:v>482.90463303690791</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>431.66630897223592</c:v>
+                  <c:v>484.10119643018203</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>431.70989760262484</c:v>
+                  <c:v>485.30369932342478</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>431.75348603526612</c:v>
+                  <c:v>486.50615879478767</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>431.7968574163674</c:v>
+                  <c:v>487.70259278546359</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>431.84066231779923</c:v>
+                  <c:v>488.910947484453</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>431.88403331831643</c:v>
+                  <c:v>490.10729507905705</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>431.92740413325419</c:v>
+                  <c:v>491.3035996952035</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>431.97402755514236</c:v>
+                  <c:v>492.58957922669066</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>432.01761484454602</c:v>
+                  <c:v>493.79177564168498</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>432.06120195405128</c:v>
+                  <c:v>494.99392865699735</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>432.10500573602098</c:v>
+                  <c:v>496.20201881215655</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>432.14837564291332</c:v>
+                  <c:v>497.39810450114828</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>432.191745378711</c:v>
+                  <c:v>498.59414723055772</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>432.23533179309464</c:v>
+                  <c:v>499.796126894422</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>432.27891803922705</c:v>
+                  <c:v>500.99806317430387</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>432.32250411934774</c:v>
+                  <c:v>502.19995607334488</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>432.36609003566639</c:v>
+                  <c:v>503.40180559468757</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>432.40967579036334</c:v>
+                  <c:v>504.6036117414734</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>432.45304454222372</c:v>
+                  <c:v>505.79939570491103</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>432.49662998088007</c:v>
+                  <c:v>507.00111532776373</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>432.54021526427272</c:v>
+                  <c:v>508.20279158546765</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>432.58358355340039</c:v>
+                  <c:v>509.39844631537557</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>432.62716853318506</c:v>
+                  <c:v>510.60003606791429</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>432.6707533638139</c:v>
+                  <c:v>511.80158246471058</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>432.71412120841205</c:v>
+                  <c:v>512.99710798912156</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>432.75770574737646</c:v>
+                  <c:v>514.198567899517</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>432.8012901430526</c:v>
+                  <c:v>515.39998446357515</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>432.84487439734767</c:v>
+                  <c:v>516.6013576844357</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>432.88824167609386</c:v>
+                  <c:v>517.79671090693171</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>432.93204248929726</c:v>
+                  <c:v>519.00397410912115</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>432.97562633064069</c:v>
+                  <c:v>520.20521731922372</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>433.01899320394551</c:v>
+                  <c:v>521.40044118712842</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>433.06257677972098</c:v>
+                  <c:v>522.60159795463824</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>433.10616022502887</c:v>
+                  <c:v>523.80271139776755</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>433.14974354160574</c:v>
+                  <c:v>525.00378151965504</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>433.19332673116509</c:v>
+                  <c:v>526.20480832343685</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>433.23669296453966</c:v>
+                  <c:v>527.39981687722616</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>433.28027590572458</c:v>
+                  <c:v>528.60075726968478</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>433.32364189524196</c:v>
+                  <c:v>529.79567984826986</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>433.36744142365615</c:v>
+                  <c:v>531.00250813161369</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>433.41102400362951</c:v>
+                  <c:v>532.20331860735689</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>433.45460646638992</c:v>
+                  <c:v>533.40408578380118</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>433.49797198618387</c:v>
+                  <c:v>534.59883602059585</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>433.54155421974224</c:v>
+                  <c:v>535.79951682323099</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>433.58513634069874</c:v>
+                  <c:v>537.00015433596036</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>433.62850152490506</c:v>
+                  <c:v>538.19477556345464</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>433.67208342567602</c:v>
+                  <c:v>539.39532672111068</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>433.71566521827469</c:v>
+                  <c:v>540.59583459825058</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>433.75903008009499</c:v>
+                  <c:v>541.79032684442734</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>433.80282848469545</c:v>
+                  <c:v>542.99672052351877</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>433.84619313832798</c:v>
+                  <c:v>544.19112665489479</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>433.88999133545752</c:v>
+                  <c:v>545.39743336433764</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>433.93335578640756</c:v>
+                  <c:v>546.5917533933864</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>433.9767201385261</c:v>
+                  <c:v>547.78603059010243</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>434.02051803517998</c:v>
+                  <c:v>548.99220708497114</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>434.06388219258935</c:v>
+                  <c:v>550.18639819803661</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>434.10724625505503</c:v>
+                  <c:v>551.38054648806087</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>434.15061022383469</c:v>
+                  <c:v>552.57465195813006</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>434.19397410016904</c:v>
+                  <c:v>553.76871461133032</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>434.23733788528261</c:v>
+                  <c:v>554.96273445074667</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>434.28070158038349</c:v>
+                  <c:v>556.15671147946443</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>434.32428200447424</c:v>
+                  <c:v>557.35661526412673</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>434.36764552267545</c:v>
+                  <c:v>558.55050646669019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Input</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'SerialDataLog Attempt Straight '!$G$12:$G$155</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="144"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.0140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.226</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.4260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.6260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.8259999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.2260000000000009</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.4260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.6259999999999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.8260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.2260000000000009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.4260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.6259999999999994</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.8260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.026</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.226000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.426</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.625999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.826000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11.026</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.226000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.426</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.625999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.826000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12.026</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.226000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.426</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.625999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.826000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.026</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.226000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.426</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.625999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.826000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14.026</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.226000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14.44</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14.84</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.04</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.44</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>15.64</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>15.84</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16.04</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16.241</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16.442</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16.641999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>16.844000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17.044</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17.244</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17.459</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17.66</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17.861000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18.062999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18.263000000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18.463000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>18.664000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>18.864999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19.065999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19.266999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19.468</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>19.667999999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>19.869</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>20.27</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>20.471</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>20.672000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>20.872</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>21.073</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>21.274000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>21.475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>21.675000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>21.876999999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>22.077999999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22.277999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>22.478999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>22.68</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>22.881</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>23.082000000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>23.282</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>23.483000000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>23.683</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>23.885000000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>24.085999999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>24.286999999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>24.486999999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>24.687999999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>24.888999999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>25.088999999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>25.29</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>25.491</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>25.690999999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>25.893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>26.093</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>26.295000000000002</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>26.495000000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>26.695</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>26.896999999999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>27.097000000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>27.297000000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>27.497</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>27.696999999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>27.896999999999998</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>28.097000000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>28.297999999999998</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>28.498000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'SerialDataLog Attempt Straight '!$P$12:$P$155</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="144"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5534,13 +6448,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="312665568"/>
-        <c:axId val="312662824"/>
+        <c:axId val="354577888"/>
+        <c:axId val="354579064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="312665568"/>
+        <c:axId val="354577888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5595,12 +6510,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312662824"/>
+        <c:crossAx val="354579064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="312662824"/>
+        <c:axId val="354579064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5657,7 +6572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312665568"/>
+        <c:crossAx val="354577888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6892,16 +7807,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7188,8 +8103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7224,6 +8139,12 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>8.3857555519126645E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -7236,7 +8157,7 @@
         <v>25</v>
       </c>
       <c r="I6">
-        <v>2.1678494530320391E-4</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -7250,7 +8171,7 @@
         <v>26</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -7273,7 +8194,7 @@
       </c>
       <c r="I9">
         <f>SUM(J:J)</f>
-        <v>92234.029294518259</v>
+        <v>779.79384829663672</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -7354,20 +8275,20 @@
         <v>29</v>
       </c>
       <c r="G12">
-        <f>(B12-$B$12)/1000</f>
+        <f t="shared" ref="G12:G43" si="0">(B12-$B$12)/1000</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H40" si="0">IF(F12&lt;200,F12+360,F12)</f>
+        <f t="shared" ref="H12:H40" si="1">IF(F12&lt;200,F12+360,F12)</f>
         <v>389</v>
       </c>
       <c r="I12">
-        <f>$H$12-$I$6*$I$7*1*(EXP(-G12/$I$7)-1-B12/$I$7)</f>
-        <v>429.18694280547203</v>
+        <f>$H$13+(1-EXP(-$I$5*G12))*100</f>
+        <v>388</v>
       </c>
       <c r="J12">
-        <f>(I12-H12)^2</f>
-        <v>1614.99037205028</v>
+        <f>IF(P12=200,(I12-H12)^2,0)</f>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -7411,20 +8332,20 @@
         <v>28</v>
       </c>
       <c r="G13">
-        <f>(B13-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>388</v>
       </c>
       <c r="I13">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G13/$I$7)-1-B13/$I$7)</f>
-        <v>428.18694280547203</v>
+        <f>$H$13+$I$6*$I$7*(1-EXP(-G13/$I$7)+G13/$I$7)*100</f>
+        <v>388</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:J47" si="1">(I13-H13)^2</f>
-        <v>1614.99037205028</v>
+        <f t="shared" ref="J13:J76" si="2">IF(P13=200,(I13-H13)^2,0)</f>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -7468,20 +8389,20 @@
         <v>28</v>
       </c>
       <c r="G14">
-        <f>(B14-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>388</v>
       </c>
       <c r="I14">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G14/$I$7)-1-B14/$I$7)</f>
-        <v>428.23034286375548</v>
+        <f t="shared" ref="I14:I77" si="3">$H$13+$I$6*$I$7*(1-EXP(-G14/$I$7)+G14/$I$7)*100</f>
+        <v>389.19997837889753</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>1618.4804869353216</v>
+        <f>IF(P14=200,SQRT((I14-H14)^2),0)</f>
+        <v>1.1999783788975265</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -7525,20 +8446,20 @@
         <v>28</v>
       </c>
       <c r="G15">
-        <f>(B15-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>388</v>
       </c>
       <c r="I15">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G15/$I$7)-1-B15/$I$7)</f>
-        <v>428.27374235159414</v>
+        <f t="shared" si="3"/>
+        <v>390.39991351766923</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>1621.9743230025872</v>
+        <f t="shared" ref="J15:J78" si="4">IF(P15=200,SQRT((I15-H15)^2),0)</f>
+        <v>2.3999135176692334</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -7582,20 +8503,20 @@
         <v>28</v>
       </c>
       <c r="G16">
-        <f>(B16-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>388</v>
       </c>
       <c r="I16">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G16/$I$7)-1-B16/$I$7)</f>
-        <v>428.31714127654328</v>
+        <f t="shared" si="3"/>
+        <v>391.59980541942986</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>1625.4718807127501</v>
+        <f t="shared" si="4"/>
+        <v>3.5998054194298561</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -7639,20 +8560,20 @@
         <v>28</v>
       </c>
       <c r="G17">
-        <f>(B17-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>388</v>
       </c>
       <c r="I17">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G17/$I$7)-1-B17/$I$7)</f>
-        <v>428.36053964605838</v>
+        <f t="shared" si="3"/>
+        <v>392.79965408729595</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>1628.9731605210507</v>
+        <f t="shared" si="4"/>
+        <v>4.7996540872959486</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -7696,20 +8617,20 @@
         <v>28</v>
       </c>
       <c r="G18">
-        <f>(B18-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>388</v>
       </c>
       <c r="I18">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G18/$I$7)-1-B18/$I$7)</f>
-        <v>428.40393746749606</v>
+        <f t="shared" si="3"/>
+        <v>393.99945952438327</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>1632.4781628773324</v>
+        <f t="shared" si="4"/>
+        <v>5.9994595243832691</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -7753,20 +8674,20 @@
         <v>28</v>
       </c>
       <c r="G19">
-        <f>(B19-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>388</v>
       </c>
       <c r="I19">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G19/$I$7)-1-B19/$I$7)</f>
-        <v>428.44733474811551</v>
+        <f t="shared" si="3"/>
+        <v>395.19922173380837</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
-        <v>1635.9868882261123</v>
+        <f t="shared" si="4"/>
+        <v>7.1992217338083719</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -7810,20 +8731,20 @@
         <v>28</v>
       </c>
       <c r="G20">
-        <f>(B20-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>388</v>
       </c>
       <c r="I20">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G20/$I$7)-1-B20/$I$7)</f>
-        <v>428.49073149507979</v>
+        <f t="shared" si="3"/>
+        <v>396.39894071868508</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
-        <v>1639.4993370066461</v>
+        <f t="shared" si="4"/>
+        <v>8.3989407186850826</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -7867,20 +8788,20 @@
         <v>28</v>
       </c>
       <c r="G21">
-        <f>(B21-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>388</v>
       </c>
       <c r="I21">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G21/$I$7)-1-B21/$I$7)</f>
-        <v>428.53412771545709</v>
+        <f t="shared" si="3"/>
+        <v>397.59861648213007</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
-        <v>1643.0155096529866</v>
+        <f t="shared" si="4"/>
+        <v>9.598616482130069</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -7924,20 +8845,20 @@
         <v>29</v>
       </c>
       <c r="G22">
-        <f>(B22-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>389</v>
       </c>
       <c r="I22">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G22/$I$7)-1-B22/$I$7)</f>
-        <v>428.57752341622194</v>
+        <f t="shared" si="3"/>
+        <v>398.79824902725807</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
-        <v>1566.3803597615956</v>
+        <f t="shared" si="4"/>
+        <v>9.7982490272580662</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -7981,20 +8902,20 @@
         <v>29</v>
       </c>
       <c r="G23">
-        <f>(B23-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>389</v>
       </c>
       <c r="I23">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G23/$I$7)-1-B23/$I$7)</f>
-        <v>428.62091860425647</v>
+        <f t="shared" si="3"/>
+        <v>399.99783835718284</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
-        <v>1569.8171910451167</v>
+        <f t="shared" si="4"/>
+        <v>10.997838357182843</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -8038,20 +8959,20 @@
         <v>29</v>
       </c>
       <c r="G24">
-        <f>(B24-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>389</v>
       </c>
       <c r="I24">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G24/$I$7)-1-B24/$I$7)</f>
-        <v>428.66431328635184</v>
+        <f t="shared" si="3"/>
+        <v>401.19738447501925</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
-        <v>1573.2577484778672</v>
+        <f t="shared" si="4"/>
+        <v>12.197384475019248</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -8095,20 +9016,20 @@
         <v>29</v>
       </c>
       <c r="G25">
-        <f>(B25-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>389</v>
       </c>
       <c r="I25">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G25/$I$7)-1-B25/$I$7)</f>
-        <v>428.70770746920903</v>
+        <f t="shared" si="3"/>
+        <v>402.39688738388202</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
-        <v>1576.7020324602784</v>
+        <f t="shared" si="4"/>
+        <v>13.396887383882017</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -8152,20 +9073,20 @@
         <v>29</v>
       </c>
       <c r="G26">
-        <f>(B26-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>389</v>
       </c>
       <c r="I26">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G26/$I$7)-1-B26/$I$7)</f>
-        <v>428.75110115944045</v>
+        <f t="shared" si="3"/>
+        <v>403.59634708688498</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
-        <v>1580.1500433880681</v>
+        <f t="shared" si="4"/>
+        <v>14.596347086884975</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -8209,20 +9130,20 @@
         <v>33</v>
       </c>
       <c r="G27">
-        <f>(B27-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>393</v>
       </c>
       <c r="I27">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G27/$I$7)-1-B27/$I$7)</f>
-        <v>428.79449436357072</v>
+        <f t="shared" si="3"/>
+        <v>404.79576358714195</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
-        <v>1281.2458267436962</v>
+        <f t="shared" si="4"/>
+        <v>11.795763587141948</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -8266,20 +9187,20 @@
         <v>33</v>
       </c>
       <c r="G28">
-        <f>(B28-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>393</v>
       </c>
       <c r="I28">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G28/$I$7)-1-B28/$I$7)</f>
-        <v>428.83788708803831</v>
+        <f t="shared" si="3"/>
+        <v>405.99513688776585</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
-        <v>1284.3541509349834</v>
+        <f t="shared" si="4"/>
+        <v>12.995136887765852</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -8323,20 +9244,20 @@
         <v>33</v>
       </c>
       <c r="G29">
-        <f>(B29-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>393</v>
       </c>
       <c r="I29">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G29/$I$7)-1-B29/$I$7)</f>
-        <v>428.88127933919623</v>
+        <f t="shared" si="3"/>
+        <v>407.19446699187142</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
-        <v>1287.46620701743</v>
+        <f t="shared" si="4"/>
+        <v>14.194466991871423</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -8380,20 +9301,20 @@
         <v>33</v>
       </c>
       <c r="G30">
-        <f>(B30-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>393</v>
       </c>
       <c r="I30">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G30/$I$7)-1-B30/$I$7)</f>
-        <v>428.92467112331337</v>
+        <f t="shared" si="3"/>
+        <v>408.39375390257067</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
-        <v>1290.5819953182258</v>
+        <f t="shared" si="4"/>
+        <v>15.393753902570666</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -8437,20 +9358,20 @@
         <v>33</v>
       </c>
       <c r="G31">
-        <f>(B31-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>393</v>
       </c>
       <c r="I31">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G31/$I$7)-1-B31/$I$7)</f>
-        <v>428.96806244657557</v>
+        <f t="shared" si="3"/>
+        <v>409.5929976229765</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
-        <v>1293.7015161607599</v>
+        <f t="shared" si="4"/>
+        <v>16.592997622976497</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -8494,20 +9415,20 @@
         <v>37</v>
       </c>
       <c r="G32">
-        <f>(B32-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>397</v>
       </c>
       <c r="I32">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G32/$I$7)-1-B32/$I$7)</f>
-        <v>429.0114533150869</v>
+        <f t="shared" si="3"/>
+        <v>410.79219815620274</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
-        <v>1024.7331433439879</v>
+        <f t="shared" si="4"/>
+        <v>13.792198156202744</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -8551,20 +9472,20 @@
         <v>37</v>
       </c>
       <c r="G33">
-        <f>(B33-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>397</v>
       </c>
       <c r="I33">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G33/$I$7)-1-B33/$I$7)</f>
-        <v>429.0548437348703</v>
+        <f t="shared" si="3"/>
+        <v>411.99135550536141</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
-        <v>1027.5130068669539</v>
+        <f t="shared" si="4"/>
+        <v>14.991355505361412</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -8608,20 +9529,20 @@
         <v>37</v>
       </c>
       <c r="G34">
-        <f>(B34-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>397</v>
       </c>
       <c r="I34">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G34/$I$7)-1-B34/$I$7)</f>
-        <v>429.09823371186923</v>
+        <f t="shared" si="3"/>
+        <v>413.19046967356354</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
-        <v>1030.2966074217782</v>
+        <f t="shared" si="4"/>
+        <v>16.190469673563541</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -8665,20 +9586,20 @@
         <v>37</v>
       </c>
       <c r="G35">
-        <f>(B35-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>397</v>
       </c>
       <c r="I35">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G35/$I$7)-1-B35/$I$7)</f>
-        <v>429.14162325194826</v>
+        <f t="shared" si="3"/>
+        <v>414.38954066392296</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
-        <v>1033.0839452701812</v>
+        <f t="shared" si="4"/>
+        <v>17.389540663922958</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -8722,20 +9643,20 @@
         <v>37</v>
       </c>
       <c r="G36">
-        <f>(B36-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>397</v>
       </c>
       <c r="I36">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G36/$I$7)-1-B36/$I$7)</f>
-        <v>429.18501236089435</v>
+        <f t="shared" si="3"/>
+        <v>415.5885684795507</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
-        <v>1035.8750206709219</v>
+        <f t="shared" si="4"/>
+        <v>18.588568479550702</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -8779,20 +9700,20 @@
         <v>44</v>
       </c>
       <c r="G37">
-        <f>(B37-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>404</v>
       </c>
       <c r="I37">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G37/$I$7)-1-B37/$I$7)</f>
-        <v>429.22840104441769</v>
+        <f t="shared" si="3"/>
+        <v>416.78755312355793</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
-        <v>636.47221925797578</v>
+        <f t="shared" si="4"/>
+        <v>12.787553123557927</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -8836,20 +9757,20 @@
         <v>44</v>
       </c>
       <c r="G38">
-        <f>(B38-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>404</v>
       </c>
       <c r="I38">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G38/$I$7)-1-B38/$I$7)</f>
-        <v>429.27178930815302</v>
+        <f t="shared" si="3"/>
+        <v>417.98649459905653</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
-        <v>638.66333483567723</v>
+        <f t="shared" si="4"/>
+        <v>13.986494599056527</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -8893,20 +9814,20 @@
         <v>44</v>
       </c>
       <c r="G39">
-        <f>(B39-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>404</v>
       </c>
       <c r="I39">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G39/$I$7)-1-B39/$I$7)</f>
-        <v>429.31517715766034</v>
+        <f t="shared" si="3"/>
+        <v>419.18539290915669</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
-        <v>640.858194523728</v>
+        <f t="shared" si="4"/>
+        <v>15.18539290915669</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -8950,20 +9871,20 @@
         <v>44</v>
       </c>
       <c r="G40">
-        <f>(B40-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>404</v>
       </c>
       <c r="I40">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G40/$I$7)-1-B40/$I$7)</f>
-        <v>429.35856459842609</v>
+        <f t="shared" si="3"/>
+        <v>420.38424805697127</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
-        <v>643.05679849254875</v>
+        <f t="shared" si="4"/>
+        <v>16.384248056971273</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -9007,20 +9928,20 @@
         <v>44</v>
       </c>
       <c r="G41">
-        <f>(B41-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41:H104" si="2">IF(F41&lt;200,F41+360,F41)</f>
+        <f t="shared" ref="H41:H104" si="5">IF(F41&lt;200,F41+360,F41)</f>
         <v>404</v>
       </c>
       <c r="I41">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G41/$I$7)-1-B41/$I$7)</f>
-        <v>429.4019516358639</v>
+        <f t="shared" si="3"/>
+        <v>421.58306004560859</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
-        <v>645.25914691076844</v>
+        <f t="shared" si="4"/>
+        <v>17.58306004560859</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -9064,20 +9985,20 @@
         <v>50</v>
       </c>
       <c r="G42">
-        <f>(B42-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
       <c r="H42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>410</v>
       </c>
       <c r="I42">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G42/$I$7)-1-B42/$I$7)</f>
-        <v>429.44533827531581</v>
+        <f t="shared" si="3"/>
+        <v>422.78182887818161</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
-        <v>378.12118064146188</v>
+        <f t="shared" si="4"/>
+        <v>12.781828878181614</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -9121,20 +10042,20 @@
         <v>50</v>
       </c>
       <c r="G43">
-        <f>(B43-$B$12)/1000</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>410</v>
       </c>
       <c r="I43">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G43/$I$7)-1-B43/$I$7)</f>
-        <v>429.48872452205308</v>
+        <f t="shared" si="3"/>
+        <v>423.98055455779854</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
-        <v>379.81038349647287</v>
+        <f t="shared" si="4"/>
+        <v>13.980554557798541</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -9178,20 +10099,20 @@
         <v>50</v>
       </c>
       <c r="G44">
-        <f>(B44-$B$12)/1000</f>
+        <f t="shared" ref="G44:G75" si="6">(B44-$B$12)/1000</f>
         <v>6.2</v>
       </c>
       <c r="H44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>410</v>
       </c>
       <c r="I44">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G44/$I$7)-1-B44/$I$7)</f>
-        <v>429.53211038127716</v>
+        <f t="shared" si="3"/>
+        <v>425.17923708757053</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
-        <v>381.50333594639517</v>
+        <f t="shared" si="4"/>
+        <v>15.179237087570527</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -9235,20 +10156,20 @@
         <v>50</v>
       </c>
       <c r="G45">
-        <f>(B45-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>6.4</v>
       </c>
       <c r="H45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>410</v>
       </c>
       <c r="I45">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G45/$I$7)-1-B45/$I$7)</f>
-        <v>429.57549585812058</v>
+        <f t="shared" si="3"/>
+        <v>426.37787647060577</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
-        <v>383.20003809129582</v>
+        <f t="shared" si="4"/>
+        <v>16.37787647060577</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -9292,20 +10213,20 @@
         <v>50</v>
       </c>
       <c r="G46">
-        <f>(B46-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>6.6</v>
       </c>
       <c r="H46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>410</v>
       </c>
       <c r="I46">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G46/$I$7)-1-B46/$I$7)</f>
-        <v>429.61888095764795</v>
+        <f t="shared" si="3"/>
+        <v>427.57647271001628</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
-        <v>384.9004900303612</v>
+        <f t="shared" si="4"/>
+        <v>17.576472710016276</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -9349,20 +10270,20 @@
         <v>59</v>
       </c>
       <c r="G47">
-        <f>(B47-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>6.8</v>
       </c>
       <c r="H47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>419</v>
       </c>
       <c r="I47">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G47/$I$7)-1-B47/$I$7)</f>
-        <v>429.66226568485672</v>
+        <f t="shared" si="3"/>
+        <v>428.77502580890939</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
-        <v>113.68390953447314</v>
+        <f t="shared" si="4"/>
+        <v>9.7750258089093904</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -9406,20 +10327,20 @@
         <v>59</v>
       </c>
       <c r="G48">
-        <f>(B48-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>7.0140000000000002</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>419</v>
       </c>
       <c r="I48">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G48/$I$7)-1-B48/$I$7)</f>
-        <v>429.70868693623322</v>
+        <f t="shared" si="3"/>
+        <v>430.05742985228386</v>
       </c>
       <c r="J48">
-        <f t="shared" ref="J48:J111" si="3">(I48-H48)^2</f>
-        <v>114.67597589825205</v>
+        <f t="shared" si="4"/>
+        <v>11.05742985228386</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -9463,20 +10384,20 @@
         <v>59</v>
       </c>
       <c r="G49">
-        <f>(B49-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>7.226</v>
       </c>
       <c r="H49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>419</v>
       </c>
       <c r="I49">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G49/$I$7)-1-B49/$I$7)</f>
-        <v>429.75467393525139</v>
+        <f t="shared" si="3"/>
+        <v>431.32780011706461</v>
       </c>
       <c r="J49">
-        <f t="shared" si="3"/>
-        <v>115.66301145357561</v>
+        <f t="shared" si="4"/>
+        <v>12.327800117064612</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -9520,20 +10441,20 @@
         <v>59</v>
       </c>
       <c r="G50">
-        <f>(B50-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>7.4260000000000002</v>
       </c>
       <c r="H50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>419</v>
       </c>
       <c r="I50">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G50/$I$7)-1-B50/$I$7)</f>
-        <v>429.79805752867759</v>
+        <f t="shared" si="3"/>
+        <v>432.52621820623511</v>
       </c>
       <c r="J50">
-        <f t="shared" si="3"/>
-        <v>116.59804639263076</v>
+        <f t="shared" si="4"/>
+        <v>13.526218206235114</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -9577,20 +10498,20 @@
         <v>59</v>
       </c>
       <c r="G51">
-        <f>(B51-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>7.6260000000000003</v>
       </c>
       <c r="H51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>419</v>
       </c>
       <c r="I51">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G51/$I$7)-1-B51/$I$7)</f>
-        <v>429.84144076973331</v>
+        <f t="shared" si="3"/>
+        <v>433.72459316772904</v>
       </c>
       <c r="J51">
-        <f t="shared" si="3"/>
-        <v>117.53683796363559</v>
+        <f t="shared" si="4"/>
+        <v>14.72459316772904</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -9634,20 +10555,20 @@
         <v>68</v>
       </c>
       <c r="G52">
-        <f>(B52-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>7.8259999999999996</v>
       </c>
       <c r="H52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>428</v>
       </c>
       <c r="I52">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G52/$I$7)-1-B52/$I$7)</f>
-        <v>429.88482366308557</v>
+        <f t="shared" si="3"/>
+        <v>434.92292500465277</v>
       </c>
       <c r="J52">
-        <f t="shared" si="3"/>
-        <v>3.5525602409273045</v>
+        <f t="shared" si="4"/>
+        <v>6.9229250046527682</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -9691,20 +10612,20 @@
         <v>68</v>
       </c>
       <c r="G53">
-        <f>(B53-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>8.0259999999999998</v>
       </c>
       <c r="H53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>428</v>
       </c>
       <c r="I53">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G53/$I$7)-1-B53/$I$7)</f>
-        <v>429.92820621333971</v>
+        <f t="shared" si="3"/>
+        <v>436.12121372011552</v>
       </c>
       <c r="J53">
-        <f t="shared" si="3"/>
-        <v>3.7179792011618487</v>
+        <f t="shared" si="4"/>
+        <v>8.1212137201155201</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -9748,20 +10669,20 @@
         <v>68</v>
       </c>
       <c r="G54">
-        <f>(B54-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>8.2260000000000009</v>
       </c>
       <c r="H54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>428</v>
       </c>
       <c r="I54">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G54/$I$7)-1-B54/$I$7)</f>
-        <v>429.97158842503995</v>
+        <f t="shared" si="3"/>
+        <v>437.31945931722476</v>
       </c>
       <c r="J54">
-        <f t="shared" si="3"/>
-        <v>3.8871609177515265</v>
+        <f t="shared" si="4"/>
+        <v>9.3194593172247551</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -9805,20 +10726,20 @@
         <v>68</v>
       </c>
       <c r="G55">
-        <f>(B55-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>8.4260000000000002</v>
       </c>
       <c r="H55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>428</v>
       </c>
       <c r="I55">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G55/$I$7)-1-B55/$I$7)</f>
-        <v>430.01497030267041</v>
+        <f t="shared" si="3"/>
+        <v>438.5176617990877</v>
       </c>
       <c r="J55">
-        <f t="shared" si="3"/>
-        <v>4.0601053206436672</v>
+        <f t="shared" si="4"/>
+        <v>10.517661799087705</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -9862,20 +10783,20 @@
         <v>68</v>
       </c>
       <c r="G56">
-        <f>(B56-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>8.6259999999999994</v>
       </c>
       <c r="H56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>428</v>
       </c>
       <c r="I56">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G56/$I$7)-1-B56/$I$7)</f>
-        <v>430.05835185065581</v>
+        <f t="shared" si="3"/>
+        <v>439.71582116881183</v>
       </c>
       <c r="J56">
-        <f t="shared" si="3"/>
-        <v>4.2368123410982008</v>
+        <f t="shared" si="4"/>
+        <v>11.715821168811829</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -9919,20 +10840,20 @@
         <v>76</v>
       </c>
       <c r="G57">
-        <f>(B57-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>8.8260000000000005</v>
       </c>
       <c r="H57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>436</v>
       </c>
       <c r="I57">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G57/$I$7)-1-B57/$I$7)</f>
-        <v>430.1017330733622</v>
+        <f t="shared" si="3"/>
+        <v>440.91393742950447</v>
       </c>
       <c r="J57">
-        <f t="shared" si="3"/>
-        <v>34.78955273786935</v>
+        <f t="shared" si="4"/>
+        <v>4.9139374295044718</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -9976,20 +10897,20 @@
         <v>76</v>
       </c>
       <c r="G58">
-        <f>(B58-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>9.0259999999999998</v>
       </c>
       <c r="H58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>436</v>
       </c>
       <c r="I58">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G58/$I$7)-1-B58/$I$7)</f>
-        <v>430.1451139750979</v>
+        <f t="shared" si="3"/>
+        <v>442.11201058427201</v>
       </c>
       <c r="J58">
-        <f t="shared" si="3"/>
-        <v>34.279690364593918</v>
+        <f t="shared" si="4"/>
+        <v>6.1120105842720136</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -10033,20 +10954,20 @@
         <v>76</v>
       </c>
       <c r="G59">
-        <f>(B59-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>9.2260000000000009</v>
       </c>
       <c r="H59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>436</v>
       </c>
       <c r="I59">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G59/$I$7)-1-B59/$I$7)</f>
-        <v>430.18849456011407</v>
+        <f t="shared" si="3"/>
+        <v>443.31004063622095</v>
       </c>
       <c r="J59">
-        <f t="shared" si="3"/>
-        <v>33.773595477823804</v>
+        <f t="shared" si="4"/>
+        <v>7.3100406362209469</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -10090,20 +11011,20 @@
         <v>76</v>
       </c>
       <c r="G60">
-        <f>(B60-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>9.4260000000000002</v>
       </c>
       <c r="H60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>436</v>
       </c>
       <c r="I60">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G60/$I$7)-1-B60/$I$7)</f>
-        <v>430.23187483260563</v>
+        <f t="shared" si="3"/>
+        <v>444.50802758845867</v>
       </c>
       <c r="J60">
-        <f t="shared" si="3"/>
-        <v>33.271267946728365</v>
+        <f t="shared" si="4"/>
+        <v>8.508027588458674</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -10147,20 +11068,20 @@
         <v>76</v>
       </c>
       <c r="G61">
-        <f>(B61-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>9.6259999999999994</v>
       </c>
       <c r="H61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>436</v>
       </c>
       <c r="I61">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G61/$I$7)-1-B61/$I$7)</f>
-        <v>430.27525479671192</v>
+        <f t="shared" si="3"/>
+        <v>445.70597144409061</v>
       </c>
       <c r="J61">
-        <f t="shared" si="3"/>
-        <v>32.772707642569884</v>
+        <f t="shared" si="4"/>
+        <v>9.7059714440906077</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -10204,20 +11125,20 @@
         <v>85</v>
       </c>
       <c r="G62">
-        <f>(B62-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>9.8260000000000005</v>
       </c>
       <c r="H62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>445</v>
       </c>
       <c r="I62">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G62/$I$7)-1-B62/$I$7)</f>
-        <v>430.31863445651743</v>
+        <f t="shared" si="3"/>
+        <v>446.9038722062233</v>
       </c>
       <c r="J62">
-        <f t="shared" si="3"/>
-        <v>215.54249422135726</v>
+        <f t="shared" si="4"/>
+        <v>1.9038722062232978</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -10261,20 +11182,20 @@
         <v>85</v>
       </c>
       <c r="G63">
-        <f>(B63-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>10.026</v>
       </c>
       <c r="H63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>445</v>
       </c>
       <c r="I63">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G63/$I$7)-1-B63/$I$7)</f>
-        <v>430.36201381605258</v>
+        <f t="shared" si="3"/>
+        <v>448.10172987796125</v>
       </c>
       <c r="J63">
-        <f t="shared" si="3"/>
-        <v>214.27063952143553</v>
+        <f t="shared" si="4"/>
+        <v>3.1017298779612474</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -10318,20 +11239,20 @@
         <v>85</v>
       </c>
       <c r="G64">
-        <f>(B64-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>10.226000000000001</v>
       </c>
       <c r="H64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>445</v>
       </c>
       <c r="I64">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G64/$I$7)-1-B64/$I$7)</f>
-        <v>430.40539287929448</v>
+        <f t="shared" si="3"/>
+        <v>449.29954446241095</v>
       </c>
       <c r="J64">
-        <f t="shared" si="3"/>
-        <v>213.00255700774821</v>
+        <f t="shared" si="4"/>
+        <v>4.2995444624109496</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -10375,20 +11296,20 @@
         <v>85</v>
       </c>
       <c r="G65">
-        <f>(B65-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>10.426</v>
       </c>
       <c r="H65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>445</v>
       </c>
       <c r="I65">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G65/$I$7)-1-B65/$I$7)</f>
-        <v>430.44877165016737</v>
+        <f t="shared" si="3"/>
+        <v>450.49731596267702</v>
       </c>
       <c r="J65">
-        <f t="shared" si="3"/>
-        <v>211.73824648897275</v>
+        <f t="shared" si="4"/>
+        <v>5.4973159626770212</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -10432,20 +11353,20 @@
         <v>85</v>
       </c>
       <c r="G66">
-        <f>(B66-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>10.625999999999999</v>
       </c>
       <c r="H66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>445</v>
       </c>
       <c r="I66">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G66/$I$7)-1-B66/$I$7)</f>
-        <v>430.49215013254371</v>
+        <f t="shared" si="3"/>
+        <v>451.69504438186578</v>
       </c>
       <c r="J66">
-        <f t="shared" si="3"/>
-        <v>210.47770777665139</v>
+        <f t="shared" si="4"/>
+        <v>6.6950443818657845</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -10489,20 +11410,20 @@
         <v>95</v>
       </c>
       <c r="G67">
-        <f>(B67-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>10.826000000000001</v>
       </c>
       <c r="H67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>455</v>
       </c>
       <c r="I67">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G67/$I$7)-1-B67/$I$7)</f>
-        <v>430.53552833024452</v>
+        <f t="shared" si="3"/>
+        <v>452.89272972308015</v>
       </c>
       <c r="J67">
-        <f t="shared" si="3"/>
-        <v>598.51037408026866</v>
+        <f t="shared" si="4"/>
+        <v>2.1072702769198486</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -10546,20 +11467,20 @@
         <v>95</v>
       </c>
       <c r="G68">
-        <f>(B68-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>11.026</v>
       </c>
       <c r="H68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>455</v>
       </c>
       <c r="I68">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G68/$I$7)-1-B68/$I$7)</f>
-        <v>430.57890624704038</v>
+        <f t="shared" si="3"/>
+        <v>454.09037198942639</v>
       </c>
       <c r="J68">
-        <f t="shared" si="3"/>
-        <v>596.38982009084339</v>
+        <f t="shared" si="4"/>
+        <v>0.90962801057361276</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -10603,20 +11524,20 @@
         <v>95</v>
       </c>
       <c r="G69">
-        <f>(B69-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>11.226000000000001</v>
       </c>
       <c r="H69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>455</v>
       </c>
       <c r="I69">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G69/$I$7)-1-B69/$I$7)</f>
-        <v>430.6222838866517</v>
+        <f t="shared" si="3"/>
+        <v>455.28797118400831</v>
       </c>
       <c r="J69">
-        <f t="shared" si="3"/>
-        <v>594.27304290300128</v>
+        <f t="shared" si="4"/>
+        <v>0.28797118400831323</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -10660,20 +11581,20 @@
         <v>95</v>
       </c>
       <c r="G70">
-        <f>(B70-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>11.426</v>
       </c>
       <c r="H70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>455</v>
       </c>
       <c r="I70">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G70/$I$7)-1-B70/$I$7)</f>
-        <v>430.66566125274989</v>
+        <f t="shared" si="3"/>
+        <v>456.48552730993038</v>
       </c>
       <c r="J70">
-        <f t="shared" si="3"/>
-        <v>592.16004226591826</v>
+        <f t="shared" si="4"/>
+        <v>1.4855273099303758</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -10717,20 +11638,20 @@
         <v>95</v>
       </c>
       <c r="G71">
-        <f>(B71-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>11.625999999999999</v>
       </c>
       <c r="H71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>455</v>
       </c>
       <c r="I71">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G71/$I$7)-1-B71/$I$7)</f>
-        <v>430.70903834895745</v>
+        <f t="shared" si="3"/>
+        <v>457.68304037029543</v>
       </c>
       <c r="J71">
-        <f t="shared" si="3"/>
-        <v>590.05081793241982</v>
+        <f t="shared" si="4"/>
+        <v>2.68304037029543</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -10774,20 +11695,20 @@
         <v>104</v>
       </c>
       <c r="G72">
-        <f>(B72-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>11.826000000000001</v>
       </c>
       <c r="H72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>464</v>
       </c>
       <c r="I72">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G72/$I$7)-1-B72/$I$7)</f>
-        <v>430.75241517884916</v>
+        <f t="shared" si="3"/>
+        <v>458.880510368209</v>
       </c>
       <c r="J72">
-        <f t="shared" si="3"/>
-        <v>1105.4018964396196</v>
+        <f t="shared" si="4"/>
+        <v>5.1194896317909979</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -10831,20 +11752,20 @@
         <v>104</v>
       </c>
       <c r="G73">
-        <f>(B73-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>12.026</v>
       </c>
       <c r="H73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>464</v>
       </c>
       <c r="I73">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G73/$I$7)-1-B73/$I$7)</f>
-        <v>430.79579174595222</v>
+        <f t="shared" si="3"/>
+        <v>460.07793730677281</v>
       </c>
       <c r="J73">
-        <f t="shared" si="3"/>
-        <v>1102.5194457781749</v>
+        <f t="shared" si="4"/>
+        <v>3.9220626932271898</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -10888,20 +11809,20 @@
         <v>104</v>
       </c>
       <c r="G74">
-        <f>(B74-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>12.226000000000001</v>
       </c>
       <c r="H74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>464</v>
       </c>
       <c r="I74">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G74/$I$7)-1-B74/$I$7)</f>
-        <v>430.83916805374736</v>
+        <f t="shared" si="3"/>
+        <v>461.27532118909056</v>
       </c>
       <c r="J74">
-        <f t="shared" si="3"/>
-        <v>1099.6407753676099</v>
+        <f t="shared" si="4"/>
+        <v>2.7246788109094382</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -10945,20 +11866,20 @@
         <v>104</v>
       </c>
       <c r="G75">
-        <f>(B75-$B$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>12.426</v>
       </c>
       <c r="H75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>464</v>
       </c>
       <c r="I75">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G75/$I$7)-1-B75/$I$7)</f>
-        <v>430.8825441056689</v>
+        <f t="shared" si="3"/>
+        <v>462.47266201826596</v>
       </c>
       <c r="J75">
-        <f t="shared" si="3"/>
-        <v>1096.7658849129657</v>
+        <f t="shared" si="4"/>
+        <v>1.5273379817340356</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -11002,20 +11923,20 @@
         <v>104</v>
       </c>
       <c r="G76">
-        <f>(B76-$B$12)/1000</f>
+        <f t="shared" ref="G76:G107" si="7">(B76-$B$12)/1000</f>
         <v>12.625999999999999</v>
       </c>
       <c r="H76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>464</v>
       </c>
       <c r="I76">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G76/$I$7)-1-B76/$I$7)</f>
-        <v>430.92591990510596</v>
+        <f t="shared" si="3"/>
+        <v>463.6699597974017</v>
       </c>
       <c r="J76">
-        <f t="shared" si="3"/>
-        <v>1093.8947741234663</v>
+        <f t="shared" si="4"/>
+        <v>0.33004020259829758</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -11059,20 +11980,20 @@
         <v>113</v>
       </c>
       <c r="G77">
-        <f>(B77-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>12.826000000000001</v>
       </c>
       <c r="H77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>473</v>
       </c>
       <c r="I77">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G77/$I$7)-1-B77/$I$7)</f>
-        <v>430.96929545540263</v>
+        <f t="shared" si="3"/>
+        <v>464.86721452959966</v>
       </c>
       <c r="J77">
-        <f t="shared" si="3"/>
-        <v>1766.5801245152379</v>
+        <f t="shared" si="4"/>
+        <v>8.1327854704003357</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -11116,20 +12037,20 @@
         <v>113</v>
       </c>
       <c r="G78">
-        <f>(B78-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>13.026</v>
       </c>
       <c r="H78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>473</v>
       </c>
       <c r="I78">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G78/$I$7)-1-B78/$I$7)</f>
-        <v>431.01267075985874</v>
+        <f t="shared" ref="I78:I141" si="8">$H$13+$I$6*$I$7*(1-EXP(-G78/$I$7)+G78/$I$7)*100</f>
+        <v>466.0644262179635</v>
       </c>
       <c r="J78">
-        <f t="shared" si="3"/>
-        <v>1762.9358167200216</v>
+        <f t="shared" si="4"/>
+        <v>6.9355737820364993</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -11173,20 +12094,20 @@
         <v>113</v>
       </c>
       <c r="G79">
-        <f>(B79-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>13.226000000000001</v>
       </c>
       <c r="H79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>473</v>
       </c>
       <c r="I79">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G79/$I$7)-1-B79/$I$7)</f>
-        <v>431.05604582173038</v>
+        <f t="shared" si="8"/>
+        <v>467.26159486559311</v>
       </c>
       <c r="J79">
-        <f t="shared" si="3"/>
-        <v>1759.2952921087815</v>
+        <f t="shared" ref="J79:J93" si="9">IF(P79=200,SQRT((I79-H79)^2),0)</f>
+        <v>5.7384051344068894</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -11230,20 +12151,20 @@
         <v>113</v>
       </c>
       <c r="G80">
-        <f>(B80-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>13.426</v>
       </c>
       <c r="H80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>473</v>
       </c>
       <c r="I80">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G80/$I$7)-1-B80/$I$7)</f>
-        <v>431.09942064423058</v>
+        <f t="shared" si="8"/>
+        <v>468.45872047559317</v>
       </c>
       <c r="J80">
-        <f t="shared" si="3"/>
-        <v>1755.6585503491308</v>
+        <f t="shared" si="9"/>
+        <v>4.541279524406832</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -11287,20 +12208,20 @@
         <v>113</v>
       </c>
       <c r="G81">
-        <f>(B81-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>13.625999999999999</v>
       </c>
       <c r="H81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>473</v>
       </c>
       <c r="I81">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G81/$I$7)-1-B81/$I$7)</f>
-        <v>431.14279523052977</v>
+        <f t="shared" si="8"/>
+        <v>469.65580305106357</v>
       </c>
       <c r="J81">
-        <f t="shared" si="3"/>
-        <v>1752.0255911133613</v>
+        <f t="shared" si="9"/>
+        <v>3.3441969489364283</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -11344,20 +12265,20 @@
         <v>123</v>
       </c>
       <c r="G82">
-        <f>(B82-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>13.826000000000001</v>
       </c>
       <c r="H82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>483</v>
       </c>
       <c r="I82">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G82/$I$7)-1-B82/$I$7)</f>
-        <v>431.1861695837564</v>
+        <f t="shared" si="8"/>
+        <v>470.85284259510621</v>
       </c>
       <c r="J82">
-        <f t="shared" si="3"/>
-        <v>2684.6730224032508</v>
+        <f t="shared" si="9"/>
+        <v>12.14715740489379</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -11401,20 +12322,20 @@
         <v>123</v>
       </c>
       <c r="G83">
-        <f>(B83-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>14.026</v>
       </c>
       <c r="H83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>483</v>
       </c>
       <c r="I83">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G83/$I$7)-1-B83/$I$7)</f>
-        <v>431.22954370699739</v>
+        <f t="shared" si="8"/>
+        <v>472.04983911082195</v>
       </c>
       <c r="J83">
-        <f t="shared" si="3"/>
-        <v>2680.1801447856938</v>
+        <f t="shared" si="9"/>
+        <v>10.950160889178051</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -11458,20 +12379,20 @@
         <v>123</v>
       </c>
       <c r="G84">
-        <f>(B84-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>14.226000000000001</v>
       </c>
       <c r="H84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>483</v>
       </c>
       <c r="I84">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G84/$I$7)-1-B84/$I$7)</f>
-        <v>431.27291760329899</v>
+        <f t="shared" si="8"/>
+        <v>473.24679260131256</v>
       </c>
       <c r="J84">
-        <f t="shared" si="3"/>
-        <v>2675.6910532750953</v>
+        <f t="shared" si="9"/>
+        <v>9.7532073986874366</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -11515,20 +12436,20 @@
         <v>123</v>
       </c>
       <c r="G85">
-        <f>(B85-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>14.44</v>
       </c>
       <c r="H85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>483</v>
       </c>
       <c r="I85">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G85/$I$7)-1-B85/$I$7)</f>
-        <v>431.31932742442319</v>
+        <f t="shared" si="8"/>
+        <v>474.52748519136611</v>
       </c>
       <c r="J85">
-        <f t="shared" si="3"/>
-        <v>2670.8919178639767</v>
+        <f t="shared" si="9"/>
+        <v>8.4725148086338891</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -11572,20 +12493,20 @@
         <v>123</v>
       </c>
       <c r="G86">
-        <f>(B86-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>14.64</v>
       </c>
       <c r="H86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>483</v>
       </c>
       <c r="I86">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G86/$I$7)-1-B86/$I$7)</f>
-        <v>431.36270086046574</v>
+        <f t="shared" si="8"/>
+        <v>475.72434962949296</v>
       </c>
       <c r="J86">
-        <f t="shared" si="3"/>
-        <v>2666.4106624257461</v>
+        <f t="shared" si="9"/>
+        <v>7.2756503705070372</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -11629,20 +12550,20 @@
         <v>133</v>
       </c>
       <c r="G87">
-        <f>(B87-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>14.84</v>
       </c>
       <c r="H87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>493</v>
       </c>
       <c r="I87">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G87/$I$7)-1-B87/$I$7)</f>
-        <v>431.40607407867066</v>
+        <f t="shared" si="8"/>
+        <v>476.92117105191278</v>
       </c>
       <c r="J87">
-        <f t="shared" si="3"/>
-        <v>3793.8117104022067</v>
+        <f t="shared" si="9"/>
+        <v>16.078828948087221</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -11686,20 +12607,20 @@
         <v>133</v>
       </c>
       <c r="G88">
-        <f>(B88-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>15.04</v>
       </c>
       <c r="H88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>493</v>
       </c>
       <c r="I88">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G88/$I$7)-1-B88/$I$7)</f>
-        <v>431.44944708192315</v>
+        <f t="shared" si="8"/>
+        <v>478.11794946172552</v>
       </c>
       <c r="J88">
-        <f t="shared" si="3"/>
-        <v>3788.4705645209783</v>
+        <f t="shared" si="9"/>
+        <v>14.882050538274484</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -11743,20 +12664,20 @@
         <v>133</v>
       </c>
       <c r="G89">
-        <f>(B89-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>15.24</v>
       </c>
       <c r="H89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>493</v>
       </c>
       <c r="I89">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G89/$I$7)-1-B89/$I$7)</f>
-        <v>431.49281987307029</v>
+        <f t="shared" si="8"/>
+        <v>479.3146848620321</v>
       </c>
       <c r="J89">
-        <f t="shared" si="3"/>
-        <v>3783.133207166577</v>
+        <f t="shared" si="9"/>
+        <v>13.685315137967905</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -11800,20 +12721,20 @@
         <v>133</v>
       </c>
       <c r="G90">
-        <f>(B90-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>15.44</v>
       </c>
       <c r="H90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>493</v>
       </c>
       <c r="I90">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G90/$I$7)-1-B90/$I$7)</f>
-        <v>431.53619245492138</v>
+        <f t="shared" si="8"/>
+        <v>480.51137725593151</v>
       </c>
       <c r="J90">
-        <f t="shared" si="3"/>
-        <v>3777.799637938464</v>
+        <f t="shared" si="9"/>
+        <v>12.488622744068493</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -11857,20 +12778,20 @@
         <v>133</v>
       </c>
       <c r="G91">
-        <f>(B91-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>15.64</v>
       </c>
       <c r="H91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>493</v>
       </c>
       <c r="I91">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G91/$I$7)-1-B91/$I$7)</f>
-        <v>431.57956483024844</v>
+        <f t="shared" si="8"/>
+        <v>481.70802664652376</v>
       </c>
       <c r="J91">
-        <f t="shared" si="3"/>
-        <v>3772.469856441654</v>
+        <f t="shared" si="9"/>
+        <v>11.291973353476237</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -11914,16 +12835,20 @@
         <v>143</v>
       </c>
       <c r="G92">
-        <f>(B92-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>15.84</v>
       </c>
       <c r="H92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>503</v>
       </c>
       <c r="I92">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G92/$I$7)-1-B92/$I$7)</f>
-        <v>431.62293700178691</v>
+        <f t="shared" si="8"/>
+        <v>482.90463303690791</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="9"/>
+        <v>20.09536696309209</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -11967,16 +12892,20 @@
         <v>143</v>
       </c>
       <c r="G93">
-        <f>(B93-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>16.04</v>
       </c>
       <c r="H93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>503</v>
       </c>
       <c r="I93">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G93/$I$7)-1-B93/$I$7)</f>
-        <v>431.66630897223592</v>
+        <f t="shared" si="8"/>
+        <v>484.10119643018203</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="9"/>
+        <v>18.898803569817971</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -12020,16 +12949,16 @@
         <v>143</v>
       </c>
       <c r="G94">
-        <f>(B94-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>16.241</v>
       </c>
       <c r="H94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>503</v>
       </c>
       <c r="I94">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G94/$I$7)-1-B94/$I$7)</f>
-        <v>431.70989760262484</v>
+        <f t="shared" si="8"/>
+        <v>485.30369932342478</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -12073,16 +13002,16 @@
         <v>143</v>
       </c>
       <c r="G95">
-        <f>(B95-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>16.442</v>
       </c>
       <c r="H95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>503</v>
       </c>
       <c r="I95">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G95/$I$7)-1-B95/$I$7)</f>
-        <v>431.75348603526612</v>
+        <f t="shared" si="8"/>
+        <v>486.50615879478767</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -12126,16 +13055,16 @@
         <v>143</v>
       </c>
       <c r="G96">
-        <f>(B96-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>16.641999999999999</v>
       </c>
       <c r="H96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>503</v>
       </c>
       <c r="I96">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G96/$I$7)-1-B96/$I$7)</f>
-        <v>431.7968574163674</v>
+        <f t="shared" si="8"/>
+        <v>487.70259278546359</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -12179,16 +13108,16 @@
         <v>152</v>
       </c>
       <c r="G97">
-        <f>(B97-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>16.844000000000001</v>
       </c>
       <c r="H97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>512</v>
       </c>
       <c r="I97">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G97/$I$7)-1-B97/$I$7)</f>
-        <v>431.84066231779923</v>
+        <f t="shared" si="8"/>
+        <v>488.910947484453</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -12232,16 +13161,16 @@
         <v>152</v>
       </c>
       <c r="G98">
-        <f>(B98-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>17.044</v>
       </c>
       <c r="H98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>512</v>
       </c>
       <c r="I98">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G98/$I$7)-1-B98/$I$7)</f>
-        <v>431.88403331831643</v>
+        <f t="shared" si="8"/>
+        <v>490.10729507905705</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -12285,16 +13214,16 @@
         <v>152</v>
       </c>
       <c r="G99">
-        <f>(B99-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>17.244</v>
       </c>
       <c r="H99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>512</v>
       </c>
       <c r="I99">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G99/$I$7)-1-B99/$I$7)</f>
-        <v>431.92740413325419</v>
+        <f t="shared" si="8"/>
+        <v>491.3035996952035</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -12338,16 +13267,16 @@
         <v>152</v>
       </c>
       <c r="G100">
-        <f>(B100-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>17.459</v>
       </c>
       <c r="H100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>512</v>
       </c>
       <c r="I100">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G100/$I$7)-1-B100/$I$7)</f>
-        <v>431.97402755514236</v>
+        <f t="shared" si="8"/>
+        <v>492.58957922669066</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -12391,16 +13320,16 @@
         <v>152</v>
       </c>
       <c r="G101">
-        <f>(B101-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>17.66</v>
       </c>
       <c r="H101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>512</v>
       </c>
       <c r="I101">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G101/$I$7)-1-B101/$I$7)</f>
-        <v>432.01761484454602</v>
+        <f t="shared" si="8"/>
+        <v>493.79177564168498</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -12444,16 +13373,16 @@
         <v>159</v>
       </c>
       <c r="G102">
-        <f>(B102-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>17.861000000000001</v>
       </c>
       <c r="H102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>519</v>
       </c>
       <c r="I102">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G102/$I$7)-1-B102/$I$7)</f>
-        <v>432.06120195405128</v>
+        <f t="shared" si="8"/>
+        <v>494.99392865699735</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -12497,16 +13426,16 @@
         <v>159</v>
       </c>
       <c r="G103">
-        <f>(B103-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>18.062999999999999</v>
       </c>
       <c r="H103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>519</v>
       </c>
       <c r="I103">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G103/$I$7)-1-B103/$I$7)</f>
-        <v>432.10500573602098</v>
+        <f t="shared" si="8"/>
+        <v>496.20201881215655</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -12550,16 +13479,16 @@
         <v>159</v>
       </c>
       <c r="G104">
-        <f>(B104-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>18.263000000000002</v>
       </c>
       <c r="H104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>519</v>
       </c>
       <c r="I104">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G104/$I$7)-1-B104/$I$7)</f>
-        <v>432.14837564291332</v>
+        <f t="shared" si="8"/>
+        <v>497.39810450114828</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -12603,16 +13532,16 @@
         <v>159</v>
       </c>
       <c r="G105">
-        <f>(B105-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>18.463000000000001</v>
       </c>
       <c r="H105">
-        <f t="shared" ref="H105:H155" si="4">IF(F105&lt;200,F105+360,F105)</f>
+        <f t="shared" ref="H105:H155" si="10">IF(F105&lt;200,F105+360,F105)</f>
         <v>519</v>
       </c>
       <c r="I105">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G105/$I$7)-1-B105/$I$7)</f>
-        <v>432.191745378711</v>
+        <f t="shared" si="8"/>
+        <v>498.59414723055772</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -12656,16 +13585,16 @@
         <v>159</v>
       </c>
       <c r="G106">
-        <f>(B106-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>18.664000000000001</v>
       </c>
       <c r="H106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>519</v>
       </c>
       <c r="I106">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G106/$I$7)-1-B106/$I$7)</f>
-        <v>432.23533179309464</v>
+        <f t="shared" si="8"/>
+        <v>499.796126894422</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -12709,16 +13638,16 @@
         <v>165</v>
       </c>
       <c r="G107">
-        <f>(B107-$B$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>18.864999999999998</v>
       </c>
       <c r="H107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>525</v>
       </c>
       <c r="I107">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G107/$I$7)-1-B107/$I$7)</f>
-        <v>432.27891803922705</v>
+        <f t="shared" si="8"/>
+        <v>500.99806317430387</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -12762,16 +13691,16 @@
         <v>165</v>
       </c>
       <c r="G108">
-        <f>(B108-$B$12)/1000</f>
+        <f t="shared" ref="G108:G139" si="11">(B108-$B$12)/1000</f>
         <v>19.065999999999999</v>
       </c>
       <c r="H108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>525</v>
       </c>
       <c r="I108">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G108/$I$7)-1-B108/$I$7)</f>
-        <v>432.32250411934774</v>
+        <f t="shared" si="8"/>
+        <v>502.19995607334488</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -12815,16 +13744,16 @@
         <v>165</v>
       </c>
       <c r="G109">
-        <f>(B109-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>19.266999999999999</v>
       </c>
       <c r="H109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>525</v>
       </c>
       <c r="I109">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G109/$I$7)-1-B109/$I$7)</f>
-        <v>432.36609003566639</v>
+        <f t="shared" si="8"/>
+        <v>503.40180559468757</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -12868,16 +13797,16 @@
         <v>165</v>
       </c>
       <c r="G110">
-        <f>(B110-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>19.468</v>
       </c>
       <c r="H110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>525</v>
       </c>
       <c r="I110">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G110/$I$7)-1-B110/$I$7)</f>
-        <v>432.40967579036334</v>
+        <f t="shared" si="8"/>
+        <v>504.6036117414734</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -12921,16 +13850,16 @@
         <v>165</v>
       </c>
       <c r="G111">
-        <f>(B111-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>19.667999999999999</v>
       </c>
       <c r="H111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>525</v>
       </c>
       <c r="I111">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G111/$I$7)-1-B111/$I$7)</f>
-        <v>432.45304454222372</v>
+        <f t="shared" si="8"/>
+        <v>505.79939570491103</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -12974,16 +13903,16 @@
         <v>168</v>
       </c>
       <c r="G112">
-        <f>(B112-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>19.869</v>
       </c>
       <c r="H112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>528</v>
       </c>
       <c r="I112">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G112/$I$7)-1-B112/$I$7)</f>
-        <v>432.49662998088007</v>
+        <f t="shared" si="8"/>
+        <v>507.00111532776373</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -13027,16 +13956,16 @@
         <v>168</v>
       </c>
       <c r="G113">
-        <f>(B113-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>20.07</v>
       </c>
       <c r="H113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>528</v>
       </c>
       <c r="I113">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G113/$I$7)-1-B113/$I$7)</f>
-        <v>432.54021526427272</v>
+        <f t="shared" si="8"/>
+        <v>508.20279158546765</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -13080,16 +14009,16 @@
         <v>168</v>
       </c>
       <c r="G114">
-        <f>(B114-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>20.27</v>
       </c>
       <c r="H114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>528</v>
       </c>
       <c r="I114">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G114/$I$7)-1-B114/$I$7)</f>
-        <v>432.58358355340039</v>
+        <f t="shared" si="8"/>
+        <v>509.39844631537557</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -13133,16 +14062,16 @@
         <v>168</v>
       </c>
       <c r="G115">
-        <f>(B115-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>20.471</v>
       </c>
       <c r="H115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>528</v>
       </c>
       <c r="I115">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G115/$I$7)-1-B115/$I$7)</f>
-        <v>432.62716853318506</v>
+        <f t="shared" si="8"/>
+        <v>510.60003606791429</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -13186,16 +14115,16 @@
         <v>168</v>
       </c>
       <c r="G116">
-        <f>(B116-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>20.672000000000001</v>
       </c>
       <c r="H116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>528</v>
       </c>
       <c r="I116">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G116/$I$7)-1-B116/$I$7)</f>
-        <v>432.6707533638139</v>
+        <f t="shared" si="8"/>
+        <v>511.80158246471058</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -13239,16 +14168,16 @@
         <v>172</v>
       </c>
       <c r="G117">
-        <f>(B117-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>20.872</v>
       </c>
       <c r="H117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>532</v>
       </c>
       <c r="I117">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G117/$I$7)-1-B117/$I$7)</f>
-        <v>432.71412120841205</v>
+        <f t="shared" si="8"/>
+        <v>512.99710798912156</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -13292,16 +14221,16 @@
         <v>172</v>
       </c>
       <c r="G118">
-        <f>(B118-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>21.073</v>
       </c>
       <c r="H118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>532</v>
       </c>
       <c r="I118">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G118/$I$7)-1-B118/$I$7)</f>
-        <v>432.75770574737646</v>
+        <f t="shared" si="8"/>
+        <v>514.198567899517</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -13345,16 +14274,16 @@
         <v>172</v>
       </c>
       <c r="G119">
-        <f>(B119-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>21.274000000000001</v>
       </c>
       <c r="H119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>532</v>
       </c>
       <c r="I119">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G119/$I$7)-1-B119/$I$7)</f>
-        <v>432.8012901430526</v>
+        <f t="shared" si="8"/>
+        <v>515.39998446357515</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -13398,16 +14327,16 @@
         <v>172</v>
       </c>
       <c r="G120">
-        <f>(B120-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>21.475000000000001</v>
       </c>
       <c r="H120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>532</v>
       </c>
       <c r="I120">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G120/$I$7)-1-B120/$I$7)</f>
-        <v>432.84487439734767</v>
+        <f t="shared" si="8"/>
+        <v>516.6013576844357</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -13451,16 +14380,16 @@
         <v>172</v>
       </c>
       <c r="G121">
-        <f>(B121-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>21.675000000000001</v>
       </c>
       <c r="H121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>532</v>
       </c>
       <c r="I121">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G121/$I$7)-1-B121/$I$7)</f>
-        <v>432.88824167609386</v>
+        <f t="shared" si="8"/>
+        <v>517.79671090693171</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -13504,16 +14433,16 @@
         <v>175</v>
       </c>
       <c r="G122">
-        <f>(B122-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>21.876999999999999</v>
       </c>
       <c r="H122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>535</v>
       </c>
       <c r="I122">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G122/$I$7)-1-B122/$I$7)</f>
-        <v>432.93204248929726</v>
+        <f t="shared" si="8"/>
+        <v>519.00397410912115</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -13557,16 +14486,16 @@
         <v>175</v>
       </c>
       <c r="G123">
-        <f>(B123-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>22.077999999999999</v>
       </c>
       <c r="H123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>535</v>
       </c>
       <c r="I123">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G123/$I$7)-1-B123/$I$7)</f>
-        <v>432.97562633064069</v>
+        <f t="shared" si="8"/>
+        <v>520.20521731922372</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -13610,16 +14539,16 @@
         <v>175</v>
       </c>
       <c r="G124">
-        <f>(B124-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>22.277999999999999</v>
       </c>
       <c r="H124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>535</v>
       </c>
       <c r="I124">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G124/$I$7)-1-B124/$I$7)</f>
-        <v>433.01899320394551</v>
+        <f t="shared" si="8"/>
+        <v>521.40044118712842</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -13663,16 +14592,16 @@
         <v>175</v>
       </c>
       <c r="G125">
-        <f>(B125-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>22.478999999999999</v>
       </c>
       <c r="H125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>535</v>
       </c>
       <c r="I125">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G125/$I$7)-1-B125/$I$7)</f>
-        <v>433.06257677972098</v>
+        <f t="shared" si="8"/>
+        <v>522.60159795463824</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -13716,16 +14645,16 @@
         <v>175</v>
       </c>
       <c r="G126">
-        <f>(B126-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>22.68</v>
       </c>
       <c r="H126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>535</v>
       </c>
       <c r="I126">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G126/$I$7)-1-B126/$I$7)</f>
-        <v>433.10616022502887</v>
+        <f t="shared" si="8"/>
+        <v>523.80271139776755</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -13769,16 +14698,16 @@
         <v>178</v>
       </c>
       <c r="G127">
-        <f>(B127-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>22.881</v>
       </c>
       <c r="H127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>538</v>
       </c>
       <c r="I127">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G127/$I$7)-1-B127/$I$7)</f>
-        <v>433.14974354160574</v>
+        <f t="shared" si="8"/>
+        <v>525.00378151965504</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -13822,16 +14751,16 @@
         <v>178</v>
       </c>
       <c r="G128">
-        <f>(B128-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>23.082000000000001</v>
       </c>
       <c r="H128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>538</v>
       </c>
       <c r="I128">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G128/$I$7)-1-B128/$I$7)</f>
-        <v>433.19332673116509</v>
+        <f t="shared" si="8"/>
+        <v>526.20480832343685</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -13875,16 +14804,16 @@
         <v>178</v>
       </c>
       <c r="G129">
-        <f>(B129-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>23.282</v>
       </c>
       <c r="H129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>538</v>
       </c>
       <c r="I129">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G129/$I$7)-1-B129/$I$7)</f>
-        <v>433.23669296453966</v>
+        <f t="shared" si="8"/>
+        <v>527.39981687722616</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -13928,16 +14857,16 @@
         <v>178</v>
       </c>
       <c r="G130">
-        <f>(B130-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>23.483000000000001</v>
       </c>
       <c r="H130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>538</v>
       </c>
       <c r="I130">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G130/$I$7)-1-B130/$I$7)</f>
-        <v>433.28027590572458</v>
+        <f t="shared" si="8"/>
+        <v>528.60075726968478</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -13981,16 +14910,16 @@
         <v>178</v>
       </c>
       <c r="G131">
-        <f>(B131-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>23.683</v>
       </c>
       <c r="H131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>538</v>
       </c>
       <c r="I131">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G131/$I$7)-1-B131/$I$7)</f>
-        <v>433.32364189524196</v>
+        <f t="shared" si="8"/>
+        <v>529.79567984826986</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -14034,16 +14963,16 @@
         <v>180</v>
       </c>
       <c r="G132">
-        <f>(B132-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>23.885000000000002</v>
       </c>
       <c r="H132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>540</v>
       </c>
       <c r="I132">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G132/$I$7)-1-B132/$I$7)</f>
-        <v>433.36744142365615</v>
+        <f t="shared" si="8"/>
+        <v>531.00250813161369</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -14087,16 +15016,16 @@
         <v>180</v>
       </c>
       <c r="G133">
-        <f>(B133-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>24.085999999999999</v>
       </c>
       <c r="H133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>540</v>
       </c>
       <c r="I133">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G133/$I$7)-1-B133/$I$7)</f>
-        <v>433.41102400362951</v>
+        <f t="shared" si="8"/>
+        <v>532.20331860735689</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -14140,16 +15069,16 @@
         <v>180</v>
       </c>
       <c r="G134">
-        <f>(B134-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>24.286999999999999</v>
       </c>
       <c r="H134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>540</v>
       </c>
       <c r="I134">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G134/$I$7)-1-B134/$I$7)</f>
-        <v>433.45460646638992</v>
+        <f t="shared" si="8"/>
+        <v>533.40408578380118</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -14193,16 +15122,16 @@
         <v>180</v>
       </c>
       <c r="G135">
-        <f>(B135-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>24.486999999999998</v>
       </c>
       <c r="H135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>540</v>
       </c>
       <c r="I135">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G135/$I$7)-1-B135/$I$7)</f>
-        <v>433.49797198618387</v>
+        <f t="shared" si="8"/>
+        <v>534.59883602059585</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -14246,16 +15175,16 @@
         <v>180</v>
       </c>
       <c r="G136">
-        <f>(B136-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>24.687999999999999</v>
       </c>
       <c r="H136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>540</v>
       </c>
       <c r="I136">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G136/$I$7)-1-B136/$I$7)</f>
-        <v>433.54155421974224</v>
+        <f t="shared" si="8"/>
+        <v>535.79951682323099</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -14299,16 +15228,16 @@
         <v>181</v>
       </c>
       <c r="G137">
-        <f>(B137-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>24.888999999999999</v>
       </c>
       <c r="H137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>541</v>
       </c>
       <c r="I137">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G137/$I$7)-1-B137/$I$7)</f>
-        <v>433.58513634069874</v>
+        <f t="shared" si="8"/>
+        <v>537.00015433596036</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -14352,16 +15281,16 @@
         <v>181</v>
       </c>
       <c r="G138">
-        <f>(B138-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>25.088999999999999</v>
       </c>
       <c r="H138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>541</v>
       </c>
       <c r="I138">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G138/$I$7)-1-B138/$I$7)</f>
-        <v>433.62850152490506</v>
+        <f t="shared" si="8"/>
+        <v>538.19477556345464</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -14405,16 +15334,16 @@
         <v>181</v>
       </c>
       <c r="G139">
-        <f>(B139-$B$12)/1000</f>
+        <f t="shared" si="11"/>
         <v>25.29</v>
       </c>
       <c r="H139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>541</v>
       </c>
       <c r="I139">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G139/$I$7)-1-B139/$I$7)</f>
-        <v>433.67208342567602</v>
+        <f t="shared" si="8"/>
+        <v>539.39532672111068</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -14458,16 +15387,16 @@
         <v>181</v>
       </c>
       <c r="G140">
-        <f>(B140-$B$12)/1000</f>
+        <f t="shared" ref="G140:G155" si="12">(B140-$B$12)/1000</f>
         <v>25.491</v>
       </c>
       <c r="H140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>541</v>
       </c>
       <c r="I140">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G140/$I$7)-1-B140/$I$7)</f>
-        <v>433.71566521827469</v>
+        <f t="shared" si="8"/>
+        <v>540.59583459825058</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -14511,16 +15440,16 @@
         <v>181</v>
       </c>
       <c r="G141">
-        <f>(B141-$B$12)/1000</f>
+        <f t="shared" si="12"/>
         <v>25.690999999999999</v>
       </c>
       <c r="H141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>541</v>
       </c>
       <c r="I141">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G141/$I$7)-1-B141/$I$7)</f>
-        <v>433.75903008009499</v>
+        <f t="shared" si="8"/>
+        <v>541.79032684442734</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -14564,16 +15493,16 @@
         <v>182</v>
       </c>
       <c r="G142">
-        <f>(B142-$B$12)/1000</f>
+        <f t="shared" si="12"/>
         <v>25.893000000000001</v>
       </c>
       <c r="H142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>542</v>
       </c>
       <c r="I142">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G142/$I$7)-1-B142/$I$7)</f>
-        <v>433.80282848469545</v>
+        <f t="shared" ref="I142:I155" si="13">$H$13+$I$6*$I$7*(1-EXP(-G142/$I$7)+G142/$I$7)*100</f>
+        <v>542.99672052351877</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -14617,16 +15546,16 @@
         <v>182</v>
       </c>
       <c r="G143">
-        <f>(B143-$B$12)/1000</f>
+        <f t="shared" si="12"/>
         <v>26.093</v>
       </c>
       <c r="H143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>542</v>
       </c>
       <c r="I143">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G143/$I$7)-1-B143/$I$7)</f>
-        <v>433.84619313832798</v>
+        <f t="shared" si="13"/>
+        <v>544.19112665489479</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -14670,16 +15599,16 @@
         <v>182</v>
       </c>
       <c r="G144">
-        <f>(B144-$B$12)/1000</f>
+        <f t="shared" si="12"/>
         <v>26.295000000000002</v>
       </c>
       <c r="H144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>542</v>
       </c>
       <c r="I144">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G144/$I$7)-1-B144/$I$7)</f>
-        <v>433.88999133545752</v>
+        <f t="shared" si="13"/>
+        <v>545.39743336433764</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -14723,16 +15652,16 @@
         <v>182</v>
       </c>
       <c r="G145">
-        <f>(B145-$B$12)/1000</f>
+        <f t="shared" si="12"/>
         <v>26.495000000000001</v>
       </c>
       <c r="H145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>542</v>
       </c>
       <c r="I145">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G145/$I$7)-1-B145/$I$7)</f>
-        <v>433.93335578640756</v>
+        <f t="shared" si="13"/>
+        <v>546.5917533933864</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -14776,16 +15705,16 @@
         <v>182</v>
       </c>
       <c r="G146">
-        <f>(B146-$B$12)/1000</f>
+        <f t="shared" si="12"/>
         <v>26.695</v>
       </c>
       <c r="H146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>542</v>
       </c>
       <c r="I146">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G146/$I$7)-1-B146/$I$7)</f>
-        <v>433.9767201385261</v>
+        <f t="shared" si="13"/>
+        <v>547.78603059010243</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -14829,16 +15758,16 @@
         <v>183</v>
       </c>
       <c r="G147">
-        <f>(B147-$B$12)/1000</f>
+        <f t="shared" si="12"/>
         <v>26.896999999999998</v>
       </c>
       <c r="H147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>543</v>
       </c>
       <c r="I147">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G147/$I$7)-1-B147/$I$7)</f>
-        <v>434.02051803517998</v>
+        <f t="shared" si="13"/>
+        <v>548.99220708497114</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -14882,16 +15811,16 @@
         <v>183</v>
       </c>
       <c r="G148">
-        <f>(B148-$B$12)/1000</f>
+        <f t="shared" si="12"/>
         <v>27.097000000000001</v>
       </c>
       <c r="H148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>543</v>
       </c>
       <c r="I148">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G148/$I$7)-1-B148/$I$7)</f>
-        <v>434.06388219258935</v>
+        <f t="shared" si="13"/>
+        <v>550.18639819803661</v>
       </c>
       <c r="K148">
         <v>0</v>
@@ -14935,16 +15864,16 @@
         <v>183</v>
       </c>
       <c r="G149">
-        <f>(B149-$B$12)/1000</f>
+        <f t="shared" si="12"/>
         <v>27.297000000000001</v>
       </c>
       <c r="H149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>543</v>
       </c>
       <c r="I149">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G149/$I$7)-1-B149/$I$7)</f>
-        <v>434.10724625505503</v>
+        <f t="shared" si="13"/>
+        <v>551.38054648806087</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -14988,16 +15917,16 @@
         <v>183</v>
       </c>
       <c r="G150">
-        <f>(B150-$B$12)/1000</f>
+        <f t="shared" si="12"/>
         <v>27.497</v>
       </c>
       <c r="H150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>543</v>
       </c>
       <c r="I150">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G150/$I$7)-1-B150/$I$7)</f>
-        <v>434.15061022383469</v>
+        <f t="shared" si="13"/>
+        <v>552.57465195813006</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -15041,16 +15970,16 @@
         <v>183</v>
       </c>
       <c r="G151">
-        <f>(B151-$B$12)/1000</f>
+        <f t="shared" si="12"/>
         <v>27.696999999999999</v>
       </c>
       <c r="H151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>543</v>
       </c>
       <c r="I151">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G151/$I$7)-1-B151/$I$7)</f>
-        <v>434.19397410016904</v>
+        <f t="shared" si="13"/>
+        <v>553.76871461133032</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -15094,16 +16023,16 @@
         <v>183</v>
       </c>
       <c r="G152">
-        <f>(B152-$B$12)/1000</f>
+        <f t="shared" si="12"/>
         <v>27.896999999999998</v>
       </c>
       <c r="H152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>543</v>
       </c>
       <c r="I152">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G152/$I$7)-1-B152/$I$7)</f>
-        <v>434.23733788528261</v>
+        <f t="shared" si="13"/>
+        <v>554.96273445074667</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -15147,16 +16076,16 @@
         <v>183</v>
       </c>
       <c r="G153">
-        <f>(B153-$B$12)/1000</f>
+        <f t="shared" si="12"/>
         <v>28.097000000000001</v>
       </c>
       <c r="H153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>543</v>
       </c>
       <c r="I153">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G153/$I$7)-1-B153/$I$7)</f>
-        <v>434.28070158038349</v>
+        <f t="shared" si="13"/>
+        <v>556.15671147946443</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -15200,16 +16129,16 @@
         <v>183</v>
       </c>
       <c r="G154">
-        <f>(B154-$B$12)/1000</f>
+        <f t="shared" si="12"/>
         <v>28.297999999999998</v>
       </c>
       <c r="H154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>543</v>
       </c>
       <c r="I154">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G154/$I$7)-1-B154/$I$7)</f>
-        <v>434.32428200447424</v>
+        <f t="shared" si="13"/>
+        <v>557.35661526412673</v>
       </c>
       <c r="K154">
         <v>0</v>
@@ -15253,16 +16182,16 @@
         <v>183</v>
       </c>
       <c r="G155">
-        <f>(B155-$B$12)/1000</f>
+        <f t="shared" si="12"/>
         <v>28.498000000000001</v>
       </c>
       <c r="H155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>543</v>
       </c>
       <c r="I155">
-        <f>$H$15-$I$6*$I$7*1*(EXP(-G155/$I$7)-1-B155/$I$7)</f>
-        <v>434.36764552267545</v>
+        <f t="shared" si="13"/>
+        <v>558.55050646669019</v>
       </c>
       <c r="K155">
         <v>0</v>
